--- a/templates/skill-grading-template.xlsx
+++ b/templates/skill-grading-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\career-training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\career-training\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Doe, John" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>Career Development</t>
   </si>
@@ -100,15 +100,9 @@
     <t>Business modeling</t>
   </si>
   <si>
-    <t># of completed software project life-cycles</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
-    <t># of completed software project life-cycles at IssueTrak</t>
-  </si>
-  <si>
     <t>Analysis and design</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>MCSD: Web Applications</t>
   </si>
   <si>
-    <t># of completed software project major/minor releases</t>
-  </si>
-  <si>
     <t>Earned</t>
   </si>
   <si>
@@ -359,6 +350,12 @@
   </si>
   <si>
     <t>Sr Software Engineer</t>
+  </si>
+  <si>
+    <t># of completed OTHER software project major/minor releases</t>
+  </si>
+  <si>
+    <t># of completed ISSUETRAK software project major/minor releases</t>
   </si>
 </sst>
 </file>
@@ -1097,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1138,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1216,11 +1213,11 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="5"/>
       <c r="H14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1228,13 +1225,13 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1242,13 +1239,13 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -1256,111 +1253,111 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" s="5"/>
     </row>
@@ -1386,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1395,7 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="8" max="8" width="52.5703125" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1411,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1427,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,10 +1505,10 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I14" s="5">
         <v>15</v>
@@ -1519,15 +1516,15 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="I15" s="5">
         <v>5</v>
@@ -1535,16 +1532,16 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" s="5">
         <v>5</v>
@@ -1552,40 +1549,40 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I19" s="20">
         <v>41913</v>
@@ -1593,76 +1590,76 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1694,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="22"/>
     </row>
@@ -1704,10 +1701,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1731,13 +1728,13 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,144 +1742,144 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1920,12 +1917,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,13 +1930,13 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1950,20 +1947,20 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1979,25 +1976,25 @@
         <v>11</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="C11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2012,37 +2009,37 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="C17" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="C19" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2057,37 +2054,37 @@
         <v>13</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="C22" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="C24" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="C25" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="C26" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2103,37 +2100,37 @@
         <v>14</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="C29" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="C30" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="C31" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="C32" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="C33" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
